--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/60/Output_26_39.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/60/Output_26_39.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2172.500251494446</v>
+        <v>432327.5500473953</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2172.500251494446</v>
+        <v>432327.5500473953</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>85782.66163143754</v>
+        <v>5860168.400006261</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>85782.66163143754</v>
+        <v>5860168.400006261</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1190677950.542155</v>
+        <v>45752822.57203083</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>14211.55234671086</v>
+        <v>1310841.058634584</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>25880.03170580313</v>
+        <v>2180371.698665075</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>37548.51106489536</v>
+        <v>3049902.338695565</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>49453.25803472789</v>
+        <v>3918483.920532377</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>61358.13058787539</v>
+        <v>4787090.493448871</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>73263.00314102288</v>
+        <v>5655697.066365362</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>85160.75309493544</v>
+        <v>6525480.661614656</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>97056.51184066986</v>
+        <v>7394868.006436494</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>109080.1103588123</v>
+        <v>8218357.280381979</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>121181.7571280806</v>
+        <v>9057378.1563015</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>133283.4038973488</v>
+        <v>9896399.032221021</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>145385.0506666171</v>
+        <v>10735419.90814054</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>157486.6974358854</v>
+        <v>11574440.78406007</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>169597.1447713751</v>
+        <v>12411723.40481826</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>181709.4056201418</v>
+        <v>13248958.13957841</v>
       </c>
     </row>
   </sheetData>
